--- a/DataCollector/RawData/MockupTemp.xlsx
+++ b/DataCollector/RawData/MockupTemp.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,9 +446,6 @@
       <c r="A4" s="1">
         <v>42892.125</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -501,9 +498,6 @@
       <c r="A9" s="1">
         <v>42892.333333333336</v>
       </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -564,9 +558,7 @@
       <c r="A15" s="1">
         <v>42892.583333333336</v>
       </c>
-      <c r="B15" s="2">
-        <v>30</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -597,9 +589,7 @@
       <c r="A18" s="1">
         <v>42892.708333333336</v>
       </c>
-      <c r="B18" s="2">
-        <v>27</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -619,7 +609,9 @@
       <c r="A20" s="1">
         <v>42892.791666666664</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>28</v>
+      </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -628,9 +620,7 @@
       <c r="A21" s="1">
         <v>42892.833333333336</v>
       </c>
-      <c r="B21" s="2">
-        <v>27</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>3</v>
       </c>
